--- a/addons/custom/forlife_stock/static/src/xlsx/import_stock_transfer.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/import_stock_transfer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\erp_forlife\custom_addons\forlife_stock\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D5854-D1FA-44D8-AF54-F83EB1FE9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản phẩm" sheetId="1" r:id="rId1"/>
@@ -29,12 +30,6 @@
     <t>Người tạo</t>
   </si>
   <si>
-    <t>Từ kho</t>
-  </si>
-  <si>
-    <t>Đến kho</t>
-  </si>
-  <si>
     <t>Ngày tạo</t>
   </si>
   <si>
@@ -50,32 +45,74 @@
     <t>Tổng trọng lượng (Kg)</t>
   </si>
   <si>
-    <t>Line / Sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line / Số lượng điều chuyển  </t>
-  </si>
-  <si>
-    <t>Line / LSX từ</t>
-  </si>
-  <si>
-    <t>Line / LSX  tới</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line / Đơn vị </t>
-  </si>
-  <si>
     <t>Phòng ban</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Từ kho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đến kho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chi tiết / Sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi tiết / Số lượng điều chuyển  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi tiết / Đơn vị </t>
+  </si>
+  <si>
+    <t>Chi tiết / LSX từ</t>
+  </si>
+  <si>
+    <t>Chi tiết / LSX  tới</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +140,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -182,7 +233,7 @@
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,71 +544,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" style="6"/>
-    <col min="4" max="4" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="4"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="6"/>
+    <col min="4" max="4" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="4"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/addons/custom/forlife_stock/static/src/xlsx/import_stock_transfer.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/import_stock_transfer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9D5854-D1FA-44D8-AF54-F83EB1FE9973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF096DF-A9B1-4930-9349-E9CBF95B2BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/addons/custom/forlife_stock/static/src/xlsx/import_stock_transfer.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/import_stock_transfer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\erp_forlife\custom_addons\forlife_stock\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF096DF-A9B1-4930-9349-E9CBF95B2BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản phẩm" sheetId="1" r:id="rId1"/>
@@ -29,12 +30,6 @@
     <t>Người tạo</t>
   </si>
   <si>
-    <t>Từ kho</t>
-  </si>
-  <si>
-    <t>Đến kho</t>
-  </si>
-  <si>
     <t>Ngày tạo</t>
   </si>
   <si>
@@ -50,32 +45,74 @@
     <t>Tổng trọng lượng (Kg)</t>
   </si>
   <si>
-    <t>Line / Sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line / Số lượng điều chuyển  </t>
-  </si>
-  <si>
-    <t>Line / LSX từ</t>
-  </si>
-  <si>
-    <t>Line / LSX  tới</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line / Đơn vị </t>
-  </si>
-  <si>
     <t>Phòng ban</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Từ kho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đến kho </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chi tiết / Sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi tiết / Số lượng điều chuyển  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi tiết / Đơn vị </t>
+  </si>
+  <si>
+    <t>Chi tiết / LSX từ</t>
+  </si>
+  <si>
+    <t>Chi tiết / LSX  tới</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +140,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -182,7 +233,7 @@
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,71 +544,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" style="6"/>
-    <col min="4" max="4" width="18.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="4"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="6"/>
+    <col min="4" max="4" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="4"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
